--- a/publication/analyses/outputs/rmse_z/gdpt_mean_rmse-z_by_z.xlsx
+++ b/publication/analyses/outputs/rmse_z/gdpt_mean_rmse-z_by_z.xlsx
@@ -568,76 +568,76 @@
         <v>1.9</v>
       </c>
       <c r="C2" t="n">
-        <v>1428.066666666667</v>
+        <v>1063.083459787557</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9514446985067562</v>
+        <v>0.9292278968751633</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.62495009980039</v>
+        <v>2.102326757713717</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.627113559305549</v>
+        <v>1.57970949319211</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.002974922176841352</v>
+        <v>-0.004993195227396457</v>
       </c>
       <c r="H2" t="n">
-        <v>-5.815026389252964e-05</v>
+        <v>-0.01331228679955836</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.081064178980215</v>
+        <v>-0.634720221722993</v>
       </c>
       <c r="J2" t="n">
-        <v>1.761245287243767</v>
+        <v>1.22193563099095</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.01953272956943608</v>
+        <v>-1.60549930007693e-15</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.02036255521219734</v>
+        <v>-8.449207163177904e-15</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4914964883131187</v>
+        <v>0.3836966487215132</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0154369159303208</v>
+        <v>3.829904414741309e-16</v>
       </c>
       <c r="O2" t="n">
-        <v>46.53253493013972</v>
+        <v>40.4243803743045</v>
       </c>
       <c r="P2" t="n">
-        <v>406.8345943467559</v>
+        <v>362.0371235812341</v>
       </c>
       <c r="Q2" t="n">
-        <v>381.8147512098865</v>
+        <v>361.7735046098999</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.69308275394757</v>
+        <v>0.4344036265094725</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.9080589209249216</v>
+        <v>0.05192932268742551</v>
       </c>
       <c r="U2" t="n">
-        <v>2.039446191457267</v>
+        <v>0.5986000988246902</v>
       </c>
       <c r="V2" t="n">
-        <v>2.627113559305549</v>
+        <v>-1.57970949319211</v>
       </c>
       <c r="W2" t="n">
-        <v>2.139337574243697</v>
+        <v>1.615307186802609</v>
       </c>
       <c r="X2" t="n">
-        <v>2505</v>
+        <v>1977</v>
       </c>
       <c r="Y2" t="n">
         <v>5544</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.4518398268398268</v>
+        <v>0.3566017316017316</v>
       </c>
     </row>
   </sheetData>

--- a/publication/analyses/outputs/rmse_z/gdpt_mean_rmse-z_by_z.xlsx
+++ b/publication/analyses/outputs/rmse_z/gdpt_mean_rmse-z_by_z.xlsx
@@ -577,31 +577,31 @@
         <v>2.102326757713717</v>
       </c>
       <c r="F2" t="n">
-        <v>1.57970949319211</v>
+        <v>1.57971019622322</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.004993195227396457</v>
+        <v>-0.004993377710618886</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.01331228679955836</v>
+        <v>-0.0133124300890216</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.634720221722993</v>
+        <v>-0.6347205312089692</v>
       </c>
       <c r="J2" t="n">
-        <v>1.22193563099095</v>
+        <v>1.2219358294886</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.60549930007693e-15</v>
+        <v>-5.876039271860287e-15</v>
       </c>
       <c r="L2" t="n">
-        <v>-8.449207163177904e-15</v>
+        <v>-1.462408567760485e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3836966487215132</v>
+        <v>0.3836966489240455</v>
       </c>
       <c r="N2" t="n">
-        <v>3.829904414741309e-16</v>
+        <v>8.223624670010518e-16</v>
       </c>
       <c r="O2" t="n">
         <v>40.4243803743045</v>
@@ -625,10 +625,10 @@
         <v>0.5986000988246902</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.57970949319211</v>
+        <v>-1.57971019622322</v>
       </c>
       <c r="W2" t="n">
-        <v>1.615307186802609</v>
+        <v>1.615307433936272</v>
       </c>
       <c r="X2" t="n">
         <v>1977</v>

--- a/publication/analyses/outputs/rmse_z/gdpt_mean_rmse-z_by_z.xlsx
+++ b/publication/analyses/outputs/rmse_z/gdpt_mean_rmse-z_by_z.xlsx
@@ -577,31 +577,31 @@
         <v>2.102326757713717</v>
       </c>
       <c r="F2" t="n">
-        <v>1.57971019622322</v>
+        <v>1.57971016092896</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.004993377710618886</v>
+        <v>-0.004993329217922536</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0133124300890216</v>
+        <v>-0.01331239440619528</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6347205312089692</v>
+        <v>-0.6347203041214712</v>
       </c>
       <c r="J2" t="n">
-        <v>1.2219358294886</v>
+        <v>1.221935955857009</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.876039271860287e-15</v>
+        <v>-7.922497031477575e-15</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.462408567760485e-14</v>
+        <v>-1.705385678119458e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3836966489240455</v>
+        <v>0.3836966486119041</v>
       </c>
       <c r="N2" t="n">
-        <v>8.223624670010518e-16</v>
+        <v>2.879728715365606e-16</v>
       </c>
       <c r="O2" t="n">
         <v>40.4243803743045</v>
@@ -625,10 +625,10 @@
         <v>0.5986000988246902</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.57971019622322</v>
+        <v>-1.57971016092896</v>
       </c>
       <c r="W2" t="n">
-        <v>1.615307433936272</v>
+        <v>1.615307630718741</v>
       </c>
       <c r="X2" t="n">
         <v>1977</v>
